--- a/自定义模板.xlsx
+++ b/自定义模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D397888-4870-4485-BAA8-BDD8EEA3534A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7D238-7DAF-4E6F-9F5C-F071F51050A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>自定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,20 +577,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自定义模板.xlsx
+++ b/自定义模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7D238-7DAF-4E6F-9F5C-F071F51050A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF38EF7-A22D-4BCB-AB66-2012E2EB3CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,96 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四行内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tolerance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cherish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍爱的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自夸的话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍贵的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,147 +348,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="5" width="35.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
